--- a/documents/schema_hormanization.xlsx
+++ b/documents/schema_hormanization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M334161\Documents\SDE-Interview\project-git-2\ace-use-case\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4307EF-AE4B-4C14-B87C-3E40565D17C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF48B73B-54B3-4FCC-8724-E6E209047052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0974C2A1-4545-420C-8299-359CBE01F372}"/>
   </bookViews>
@@ -297,7 +297,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +314,11 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -396,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -455,6 +460,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,7 +781,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1126,7 +1134,7 @@
       <c r="E21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="27" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="9" t="s">

--- a/documents/schema_hormanization.xlsx
+++ b/documents/schema_hormanization.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M334161\Documents\SDE-Interview\project-git-2\ace-use-case\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M334161\Documents\SDE-Interview\test_git_version\ace-use-case\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF48B73B-54B3-4FCC-8724-E6E209047052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C053E179-A3F3-48EE-A642-B8CCAEF7133C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0974C2A1-4545-420C-8299-359CBE01F372}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="88">
   <si>
     <t>Process Order</t>
   </si>
@@ -291,25 +291,31 @@
   </si>
   <si>
     <t>unit_price</t>
+  </si>
+  <si>
+    <t>if this column name is datetime I need format to change data type</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>datetype</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -401,69 +407,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,695 +766,856 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CD910C-4475-4F3A-BE3B-F76257C7A46F}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23" style="21" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.44140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="23" style="12" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.44140625" style="12" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="58.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="H1" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="G2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="G3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="G4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="G5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="G6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="G7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="G8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="G9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="17" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="18" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="G10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="16" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="G11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19" t="s">
+      <c r="E12" s="16"/>
+      <c r="F12" s="16" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="G12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="G13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19" t="s">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="G14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19" t="s">
+      <c r="E15" s="16"/>
+      <c r="F15" s="16" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="G15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19" t="s">
+      <c r="E16" s="16"/>
+      <c r="F16" s="16" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="G16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="16" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="G17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="C18" s="1"/>
+      <c r="D18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19" t="s">
+      <c r="E18" s="16"/>
+      <c r="F18" s="16" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="G18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19" t="s">
+      <c r="E19" s="16"/>
+      <c r="F19" s="16" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="G19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19" t="s">
+      <c r="E20" s="16"/>
+      <c r="F20" s="16" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="G20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="G21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="G22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="G23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="24" t="s">
+      <c r="E24" s="19"/>
+      <c r="F24" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="G24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="D25" s="15" t="s">
+      <c r="C25" s="1"/>
+      <c r="D25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="15" t="s">
+      <c r="E25" s="19"/>
+      <c r="F25" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+      <c r="G25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="D26" s="15" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="15" t="s">
+      <c r="E26" s="19"/>
+      <c r="F26" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="G26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="3"/>
-      <c r="D27" s="15" t="s">
+      <c r="C27" s="1"/>
+      <c r="D27" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="15" t="s">
+      <c r="E27" s="19"/>
+      <c r="F27" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="G27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="3"/>
-      <c r="D28" s="15" t="s">
+      <c r="C28" s="1"/>
+      <c r="D28" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="15" t="s">
+      <c r="E28" s="19"/>
+      <c r="F28" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+      <c r="G28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="3"/>
-      <c r="D29" s="15" t="s">
+      <c r="C29" s="1"/>
+      <c r="D29" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="15" t="s">
+      <c r="E29" s="19"/>
+      <c r="F29" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D30" s="19"/>
-      <c r="E30" s="16" t="s">
+      <c r="G29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="1"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D31" s="19"/>
-      <c r="E31" s="16" t="s">
+      <c r="G30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C31" s="1"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D32" s="19"/>
-      <c r="E32" s="13" t="s">
+      <c r="G31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C32" s="1"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D33" s="19"/>
-      <c r="E33" s="13" t="s">
+      <c r="G32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C33" s="1"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D34" s="19"/>
-      <c r="E34" s="13" t="s">
+      <c r="G33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C34" s="1"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D35" s="19"/>
-      <c r="E35" s="13" t="s">
+      <c r="G34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C35" s="1"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G35" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="4:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D36" s="19"/>
-      <c r="E36" s="13" t="s">
+      <c r="G35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="1"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="4:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D37" s="19"/>
-      <c r="E37" s="13" t="s">
+      <c r="G36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C37" s="1"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G37" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="4:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D38" s="19"/>
-      <c r="E38" s="13" t="s">
+      <c r="G37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C38" s="1"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="4:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D39" s="19"/>
-      <c r="E39" s="13" t="s">
+      <c r="G38" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C39" s="1"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="4:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D40" s="19"/>
-      <c r="E40" s="13" t="s">
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="1"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="4:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D41" s="19"/>
-      <c r="E41" s="13" t="s">
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="1"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="42" spans="4:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D42" s="19"/>
-      <c r="E42" s="13" t="s">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="1"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G42" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="4:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D43" s="19"/>
-      <c r="E43" s="13" t="s">
+      <c r="G42" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C43" s="1"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="G43" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="4:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D44" s="19"/>
-      <c r="E44" s="13" t="s">
+      <c r="G43" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C44" s="1"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G44" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="4:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D45" s="19"/>
-      <c r="E45" s="13" t="s">
+      <c r="G44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="1"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G45" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="4:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D46" s="19"/>
+      <c r="G45" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C46" s="1"/>
+      <c r="D46" s="20"/>
       <c r="E46" s="13" t="s">
         <v>46</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="21" t="s">
         <v>81</v>
       </c>
+      <c r="H46" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F46" xr:uid="{D3CD910C-4475-4F3A-BE3B-F76257C7A46F}"/>
+  <autoFilter ref="A1:H1" xr:uid="{D3CD910C-4475-4F3A-BE3B-F76257C7A46F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>